--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -130,18 +130,18 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -169,13 +169,13 @@
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>sure</t>
@@ -1652,25 +1652,25 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7324561403508771</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L21">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1678,25 +1678,25 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1707,22 +1707,22 @@
         <v>0.7</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1730,25 +1730,25 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M24">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="N24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1990,25 +1990,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6073619631901841</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2016,25 +2016,25 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2042,25 +2042,25 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5869565217391305</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="10:17">
